--- a/R/benchmark-models/ima/ima-results.xlsx
+++ b/R/benchmark-models/ima/ima-results.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="12">
   <si>
     <t>Here we used MA(1) models to perform 1-step ahead forecasts (expanding window). An intercept is used. The first column of each sheet contains the sample that was used for estimation.</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>MA1.coefficient</t>
+  </si>
+  <si>
+    <t>adjR2</t>
   </si>
   <si>
     <t>one.step.ahead.fcast</t>
@@ -179,10 +182,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.015565433551264694</v>
@@ -191,15 +197,18 @@
         <v>-0.20101014356079833</v>
       </c>
       <c r="D2" t="n">
+        <v>0.020245276322047645</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.012599819551725244</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0158824919767582</v>
@@ -208,15 +217,18 @@
         <v>-0.19665458321163</v>
       </c>
       <c r="D3" t="n">
+        <v>0.018946760343251712</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.012067054092147677</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.016327388748341956</v>
@@ -225,15 +237,18 @@
         <v>-0.18824213204899728</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0162656484810223</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.011173565690731201</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.45728485683796105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.010943962626832789</v>
@@ -242,15 +257,18 @@
         <v>-0.41148016982109914</v>
       </c>
       <c r="D5" t="n">
+        <v>0.020896787246145965</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1964092870400751</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.007618087012877783</v>
@@ -259,15 +277,18 @@
         <v>-0.09568815895533789</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.010357873152331498</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.011620876221857274</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04688358589885411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.008187944891975558</v>
@@ -276,9 +297,12 @@
         <v>-0.10791027566248575</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.008861106998557133</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.00457193767209914</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
@@ -309,10 +333,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03287210822677565</v>
@@ -321,15 +348,18 @@
         <v>0.21265913836096756</v>
       </c>
       <c r="D2" t="n">
+        <v>0.020951014883332175</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.052583957379634866</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.995003330853791E-4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03168341541033987</v>
@@ -338,15 +368,18 @@
         <v>0.19739238126100317</v>
       </c>
       <c r="D3" t="n">
+        <v>0.016635674272202916</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.021969949692895896</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03312035312940285</v>
@@ -355,15 +388,18 @@
         <v>0.18403950476865324</v>
       </c>
       <c r="D4" t="n">
+        <v>0.013546829972323926</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04438240311916777</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05543470688809826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.033368611373723295</v>
@@ -372,15 +408,18 @@
         <v>0.18662503623310467</v>
       </c>
       <c r="D5" t="n">
+        <v>0.014968897280110194</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03535671792679457</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06672363204290921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03404739888412935</v>
@@ -389,15 +428,18 @@
         <v>0.18630250372754426</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01557509171657645</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03978435027759134</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.017839918128331078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.033580997344547184</v>
@@ -406,9 +448,12 @@
         <v>0.1843306341712126</v>
       </c>
       <c r="D7" t="n">
+        <v>0.015280527754626516</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.029619973391589734</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.07257069283483553</v>
       </c>
     </row>
@@ -439,10 +484,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03051021051002349</v>
@@ -451,15 +499,18 @@
         <v>0.026322142153608032</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.019741581286684795</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03028755103657998</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03041424332328235</v>
@@ -468,15 +519,18 @@
         <v>0.02681515251307683</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01927524075752829</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03029297690673958</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.029558802241544058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.030397250642661553</v>
@@ -485,15 +539,18 @@
         <v>0.026870442884125607</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.018863479873979516</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.030377974092987654</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.034401426717332484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.030472726382448034</v>
@@ -502,15 +559,18 @@
         <v>0.026827862174046837</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01847712148711511</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.030578694377294408</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.02078253918252848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.030290103539551808</v>
@@ -519,15 +579,18 @@
         <v>0.026424759620977088</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.018134901053108</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.030035986285646587</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.0299017043450967</v>
@@ -536,9 +599,12 @@
         <v>0.02889042206743261</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.017572537645649255</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.029333020777085907</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.021761491781513875</v>
       </c>
     </row>
@@ -569,10 +635,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0052895096727587545</v>
@@ -581,15 +650,18 @@
         <v>0.3580487878236719</v>
       </c>
       <c r="D2" t="n">
+        <v>0.08981856541246236</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.026762833172348593</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.006271981852030915</v>
@@ -598,15 +670,18 @@
         <v>0.3746580286415327</v>
       </c>
       <c r="D3" t="n">
+        <v>0.09990383775784728</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.020601734786738626</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06952606264861316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.007535821878218907</v>
@@ -615,15 +690,18 @@
         <v>0.3789473419402532</v>
       </c>
       <c r="D4" t="n">
+        <v>0.10584473653250426</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02570287204737902</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08157998699242341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.008917841487786803</v>
@@ -632,15 +710,18 @@
         <v>0.39384232530632796</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1147649623361503</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.030284670198083185</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09075436326846287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.010413060702098806</v>
@@ -649,15 +730,18 @@
         <v>0.4071690094670365</v>
       </c>
       <c r="D6" t="n">
+        <v>0.12570387379640047</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.034400524168123114</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06672363204291099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.01119577113377616</v>
@@ -666,9 +750,12 @@
         <v>0.41554170661303114</v>
       </c>
       <c r="D7" t="n">
+        <v>0.13411977366215277</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.024243662810361076</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.023716526617312716</v>
       </c>
     </row>
@@ -699,10 +786,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04230249342005549</v>
@@ -711,15 +801,18 @@
         <v>0.3854659250766206</v>
       </c>
       <c r="D2" t="n">
+        <v>0.16822102040030484</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05608824163992485</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.033434776086236795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04169647664183378</v>
@@ -728,15 +821,18 @@
         <v>0.38160795284341165</v>
       </c>
       <c r="D3" t="n">
+        <v>0.16547248654031488</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.033275213138537194</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04180261709726605</v>
@@ -745,15 +841,18 @@
         <v>0.38103247254435435</v>
       </c>
       <c r="D4" t="n">
+        <v>0.16579579284742563</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.043297265749577554</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.041548378276314094</v>
@@ -762,15 +861,18 @@
         <v>0.38032160459890446</v>
       </c>
       <c r="D5" t="n">
+        <v>0.16582024485849334</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.037872338261772234</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04225375379485268</v>
@@ -779,15 +881,18 @@
         <v>0.3783066628409543</v>
       </c>
       <c r="D6" t="n">
+        <v>0.16413695931332717</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.052608219753802664</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.041588199022664515</v>
@@ -796,9 +901,12 @@
         <v>0.37430285708386185</v>
       </c>
       <c r="D7" t="n">
+        <v>0.16100119712970173</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03173587592139826</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.019182819416773356</v>
       </c>
     </row>
@@ -829,10 +937,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.018982235685831583</v>
@@ -841,15 +952,18 @@
         <v>0.4840163105965451</v>
       </c>
       <c r="D2" t="n">
+        <v>0.2901363126851316</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.02267374069121696</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.01959551991665101</v>
@@ -858,15 +972,18 @@
         <v>0.48578014696658706</v>
       </c>
       <c r="D3" t="n">
+        <v>0.29002196837555183</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.029758270945885124</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04688358589885322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02007827208375434</v>
@@ -875,15 +992,18 @@
         <v>0.49037424039478905</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2947755689433278</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02827607017738868</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04879016416943127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.020648519779626208</v>
@@ -892,15 +1012,18 @@
         <v>0.49269984753583485</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2979204324181097</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.030558590442444716</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05826890812397334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.021406258227924347</v>
@@ -909,15 +1032,18 @@
         <v>0.4990619396636933</v>
       </c>
       <c r="D6" t="n">
+        <v>0.30218480429324635</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.034931154818959066</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06297479916139093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.022162612613627956</v>
@@ -926,9 +1052,12 @@
         <v>0.5063663239859213</v>
       </c>
       <c r="D7" t="n">
+        <v>0.30982149780674706</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03603850279719886</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06109509935980828</v>
       </c>
     </row>
@@ -959,10 +1088,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.05100007793367645</v>
@@ -971,15 +1103,18 @@
         <v>0.5176840627259726</v>
       </c>
       <c r="D2" t="n">
+        <v>0.25281813184127266</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05367219809819186</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.017839918128332855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.049958666901155614</v>
@@ -988,15 +1123,18 @@
         <v>0.50493624406305</v>
       </c>
       <c r="D3" t="n">
+        <v>0.23988744233574022</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03231238863610838</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.021761491781510323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.049658448400777364</v>
@@ -1005,15 +1143,18 @@
         <v>0.5150092384768763</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2539991349705564</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04454939730883494</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.049018875193060585</v>
@@ -1022,15 +1163,18 @@
         <v>0.5092617146976062</v>
       </c>
       <c r="D5" t="n">
+        <v>0.25573017857081914</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.037664627864974286</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.028587456851916215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04876840520457714</v>
@@ -1039,15 +1183,18 @@
         <v>0.5147017880326301</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2621916979831673</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0442614945671064</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04873579121311704</v>
@@ -1056,9 +1203,12 @@
         <v>0.5146884738761046</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2630677115789932</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04812825642594619</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04210117601863317</v>
       </c>
     </row>
@@ -1089,10 +1239,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.11065829931179445</v>
@@ -1101,15 +1254,18 @@
         <v>0.15822846578102984</v>
       </c>
       <c r="D2" t="n">
+        <v>0.011880517870086482</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.08103417557203124</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.11024698917881613</v>
@@ -1118,15 +1274,18 @@
         <v>0.1595147074970698</v>
       </c>
       <c r="D3" t="n">
+        <v>0.013304689767823286</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.10745759700579831</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07973496801885638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.1096322124768492</v>
@@ -1135,15 +1294,18 @@
         <v>0.15948156660658408</v>
       </c>
       <c r="D4" t="n">
+        <v>0.013779509458575534</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.10529557399380751</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.04186420409870095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.10641998161396411</v>
@@ -1152,15 +1314,18 @@
         <v>0.1613239774182326</v>
       </c>
       <c r="D5" t="n">
+        <v>0.014510521713667845</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.08313437492099118</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0039920212695392365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.10471087515181034</v>
@@ -1169,15 +1334,18 @@
         <v>0.16580469675989423</v>
       </c>
       <c r="D6" t="n">
+        <v>0.016950635191922192</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.09193572338578837</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.09431067947124383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.10076091487868082</v>
@@ -1186,9 +1354,12 @@
         <v>0.16984446450343943</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01918630250616804</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.06973821111353126</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.09321238172217683</v>
       </c>
     </row>
@@ -1219,10 +1390,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03705024503777547</v>
@@ -1231,15 +1405,18 @@
         <v>0.6313261167087619</v>
       </c>
       <c r="D2" t="n">
+        <v>0.37587695548649624</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.008842302204424543</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08342160813907284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0396387002566189</v>
@@ -1248,15 +1425,18 @@
         <v>0.5789191795759224</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3533293434460155</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.08668864034935539</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03906307952978028</v>
@@ -1265,15 +1445,18 @@
         <v>0.5697750199747086</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3541507998783604</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02933150431375366</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03910089244639495</v>
@@ -1282,15 +1465,18 @@
         <v>0.5697532052974765</v>
       </c>
       <c r="D5" t="n">
+        <v>0.35453797691833966</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03976814219383116</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04879016416943216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.039360398226878666</v>
@@ -1299,15 +1485,18 @@
         <v>0.571728463824654</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3547684583435954</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.044348626732597825</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.039430877259378605</v>
@@ -1316,9 +1505,12 @@
         <v>0.5718158261946215</v>
       </c>
       <c r="D7" t="n">
+        <v>0.35512166804963463</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04085625728273653</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
@@ -1349,10 +1541,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.025025444555503658</v>
@@ -1361,15 +1556,18 @@
         <v>0.5082527837441703</v>
       </c>
       <c r="D2" t="n">
+        <v>0.1354207763572085</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.06404998691038591</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.10616019582838998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.026234566711311025</v>
@@ -1378,15 +1576,18 @@
         <v>0.5305868891133545</v>
       </c>
       <c r="D3" t="n">
+        <v>0.15236820294908893</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.047300263002059084</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08250122151174377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02725691276855407</v>
@@ -1395,15 +1596,18 @@
         <v>0.5309938821827709</v>
       </c>
       <c r="D4" t="n">
+        <v>0.15834636537208113</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.045593582857362425</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.10074990310014353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.028825407112443368</v>
@@ -1412,15 +1616,18 @@
         <v>0.5443412371399428</v>
       </c>
       <c r="D5" t="n">
+        <v>0.16466895278704197</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05804318610692098</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09803374027136424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.029948573115990883</v>
@@ -1429,15 +1636,18 @@
         <v>0.5538096151584873</v>
       </c>
       <c r="D6" t="n">
+        <v>0.1743461104956956</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05151682617555908</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.09893994785490534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03126881527726635</v>
@@ -1446,9 +1656,12 @@
         <v>0.5603842626264558</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1809456367930301</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05729344399794992</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.07325046173959304</v>
       </c>
     </row>
@@ -1479,10 +1692,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03656698014942477</v>
@@ -1491,15 +1707,18 @@
         <v>-0.2433085698745253</v>
       </c>
       <c r="D2" t="n">
+        <v>0.012795434226716362</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.038291791381714575</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.036415301781831645</v>
@@ -1508,15 +1727,18 @@
         <v>-0.2422253212220295</v>
       </c>
       <c r="D3" t="n">
+        <v>0.013021120118635876</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03871380214352493</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03633494681371254</v>
@@ -1525,15 +1747,18 @@
         <v>-0.24174111862943917</v>
       </c>
       <c r="D4" t="n">
+        <v>0.013323527583160466</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.037583990956869914</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.027615167032972288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.036186896517459655</v>
@@ -1542,15 +1767,18 @@
         <v>-0.24098586173545844</v>
       </c>
       <c r="D5" t="n">
+        <v>0.013542263206561489</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03854074289336434</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03616905159261855</v>
@@ -1559,15 +1787,18 @@
         <v>-0.24098387500030743</v>
       </c>
       <c r="D6" t="n">
+        <v>0.013918151631795994</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03646339516415874</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03729578474369788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.036181582046976184</v>
@@ -1576,9 +1807,12 @@
         <v>-0.2411743686798901</v>
       </c>
       <c r="D7" t="n">
+        <v>0.014284509020030534</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03598499872817674</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03246719013750177</v>
       </c>
     </row>
@@ -1609,10 +1843,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03836264437156854</v>
@@ -1621,15 +1858,18 @@
         <v>0.27551032105776546</v>
       </c>
       <c r="D2" t="n">
+        <v>0.06591476973464383</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04780428676920027</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06859279146561192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.038888741699859224</v>
@@ -1638,15 +1878,18 @@
         <v>0.2768771075350169</v>
       </c>
       <c r="D3" t="n">
+        <v>0.06730708667921204</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.044518864385275705</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.039060208805981614</v>
@@ -1655,15 +1898,18 @@
         <v>0.27713097795516767</v>
       </c>
       <c r="D4" t="n">
+        <v>0.06793346467186046</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04099654697043557</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05448818528406907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03938181129161469</v>
@@ -1672,15 +1918,18 @@
         <v>0.2773367039217752</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06840650246485769</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04305349906366884</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0393578323986913</v>
@@ -1689,15 +1938,18 @@
         <v>0.27738924244048635</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0687713109550182</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.039098696604725994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.038258712117089644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03933791152890063</v>
@@ -1706,9 +1958,12 @@
         <v>0.27747128912201635</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06910291858741235</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03910926565756443</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.022739486969489242</v>
       </c>
     </row>
@@ -1739,10 +1994,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03916338608327135</v>
@@ -1751,15 +2009,18 @@
         <v>-0.10538475645908567</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.010990951715888153</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.036381863503052246</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.04395188752918244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0378774447477081</v>
@@ -1768,15 +2029,18 @@
         <v>-0.16464325197828633</v>
       </c>
       <c r="D3" t="n">
+        <v>-8.362998637172492E-4</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.050550024654189674</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03794469308198074</v>
@@ -1785,15 +2049,18 @@
         <v>-0.17096160575104688</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004434876162569212</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03736205766780715</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03809594609306777</v>
@@ -1802,15 +2069,18 @@
         <v>-0.17312557291350833</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004643519303532351</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.036482511766297</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.00895974137147082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.037677406748906274</v>
@@ -1819,15 +2089,18 @@
         <v>-0.17742550907743684</v>
       </c>
       <c r="D6" t="n">
+        <v>0.006224170564367082</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04246454576156134</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.037670371970571506</v>
@@ -1836,9 +2109,12 @@
         <v>-0.1772934983912001</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006944283321756006</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03773268147518115</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
@@ -1869,10 +2145,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.030761703674627952</v>
@@ -1881,15 +2160,18 @@
         <v>0.29140422161849433</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0727168677856519</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04395043668935356</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.13102826240640297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.032993695394903086</v>
@@ -1898,15 +2180,18 @@
         <v>0.32950292199146675</v>
       </c>
       <c r="D3" t="n">
+        <v>0.09136777900063353</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.060488641326211665</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08892620919440208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0337192136549056</v>
@@ -1915,15 +2200,18 @@
         <v>0.3439157117118291</v>
       </c>
       <c r="D4" t="n">
+        <v>0.11200934790709283</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04298887595248132</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03440940363125081</v>
@@ -1932,15 +2220,18 @@
         <v>0.3449507931688488</v>
       </c>
       <c r="D5" t="n">
+        <v>0.11652278343200184</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04370631104335042</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03429886834854771</v>
@@ -1949,15 +2240,18 @@
         <v>0.34421035996292443</v>
       </c>
       <c r="D6" t="n">
+        <v>0.11685378825676629</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03278966221270316</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03443113851391084</v>
@@ -1966,9 +2260,12 @@
         <v>0.34377373541968276</v>
       </c>
       <c r="D7" t="n">
+        <v>0.11700335203351941</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.036275443586378096</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
@@ -1999,10 +2296,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03146152056497954</v>
@@ -2011,15 +2311,18 @@
         <v>-0.017662488682207572</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.020540256982447103</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03128807641631861</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.05354076692802945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03188706546637547</v>
@@ -2028,15 +2331,18 @@
         <v>0.0031055894192055004</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.020401154696220614</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03195421305208801</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.032371067434352224</v>
@@ -2045,15 +2351,18 @@
         <v>0.05833449718888829</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.017446810840402005</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03375719318651005</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.038258712117088756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0324490044616331</v>
@@ -2062,15 +2371,18 @@
         <v>0.06812552340155949</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.015897705872303547</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03273573232853516</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03633192924739248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03251951788225091</v>
@@ -2079,15 +2391,18 @@
         <v>0.06888543820181524</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.015385770909693619</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.032762558846635835</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03440142671733071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.032551002599887004</v>
@@ -2096,9 +2411,12 @@
         <v>0.06935422605769379</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.01497090710310145</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.032662514171675205</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06391332574365371</v>
       </c>
     </row>
@@ -2129,10 +2447,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.015217238086152602</v>
@@ -2141,15 +2462,18 @@
         <v>-0.2089568536090677</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00939866516117116</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.007861649680448363</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07788653865707484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.016328710825636798</v>
@@ -2158,15 +2482,18 @@
         <v>-0.19477949991362897</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005565499163651122</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0030695144505174157</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.017146158834973946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.01601707760937913</v>
@@ -2175,15 +2502,18 @@
         <v>-0.2024288869893009</v>
       </c>
       <c r="D4" t="n">
+        <v>0.008770187573612365</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.019912780307139076</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03246719013750443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.016207866880560754</v>
@@ -2192,15 +2522,18 @@
         <v>-0.2027801171503529</v>
       </c>
       <c r="D5" t="n">
+        <v>0.009581424668476224</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.013710874256017434</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.009950330853165212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.016152865869277274</v>
@@ -2209,15 +2542,18 @@
         <v>-0.20306429521656208</v>
       </c>
       <c r="D6" t="n">
+        <v>0.010041328235187885</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.016901818936597052</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.01677017411001705</v>
@@ -2226,9 +2562,12 @@
         <v>-0.2035479477530862</v>
       </c>
       <c r="D7" t="n">
+        <v>0.010467848327812002</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.008315947045837773</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05638033343610971</v>
       </c>
     </row>
@@ -2259,10 +2598,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03536651551921112</v>
@@ -2271,15 +2613,18 @@
         <v>0.27920047152334554</v>
       </c>
       <c r="D2" t="n">
+        <v>0.06822435646809666</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.031093541427544842</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.04499736593073589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.033477272981236844</v>
@@ -2288,15 +2633,18 @@
         <v>0.28734175722089456</v>
       </c>
       <c r="D3" t="n">
+        <v>0.06920081907716968</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.012070888746448155</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.10165365372649937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03550926169828533</v>
@@ -2305,15 +2653,18 @@
         <v>0.2406105737967094</v>
       </c>
       <c r="D4" t="n">
+        <v>0.044413288761236736</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0558704276110112</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08525984395082276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03622492807489208</v>
@@ -2322,15 +2673,18 @@
         <v>0.2621384053443889</v>
       </c>
       <c r="D5" t="n">
+        <v>0.05601253183723143</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04319520664826863</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08434114843374996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03717954513222588</v>
@@ -2339,15 +2693,18 @@
         <v>0.2622493287213234</v>
       </c>
       <c r="D6" t="n">
+        <v>0.059727809009416544</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0477717316401626</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08434114843375173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03803176646557242</v>
@@ -2356,9 +2713,12 @@
         <v>0.2724866923128366</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06538873543815771</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04769919670190541</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.07973496801885283</v>
       </c>
     </row>
@@ -2389,10 +2749,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04416245535676441</v>
@@ -2401,15 +2764,18 @@
         <v>0.10101008124307888</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.013907491317865395</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04792257152042416</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.059211859631845165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04438979253109201</v>
@@ -2418,15 +2784,18 @@
         <v>0.10726357396891534</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.012529567827705534</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.045553567172571086</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04497336564272647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.044377421761526196</v>
@@ -2435,15 +2804,18 @@
         <v>0.10728729155521448</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.012126686690562716</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04431635470459235</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0573250666192715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04464975694334461</v>
@@ -2452,15 +2824,18 @@
         <v>0.10661164967664144</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01183578915717165</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04601030636177303</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05259245011916924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04478139036452047</v>
@@ -2469,15 +2844,18 @@
         <v>0.10777181905314127</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.011302839666984532</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04547633752746765</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.055434706888101815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04498012290843338</v>
@@ -2486,9 +2864,12 @@
         <v>0.10827221845390907</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.010859636186214994</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04603864840365306</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05638033343611415</v>
       </c>
     </row>
@@ -2519,10 +2900,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.047664427089882576</v>
@@ -2531,15 +2915,18 @@
         <v>0.21865959477052696</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.0038586852809492367</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.051606741959241476</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04801747003342707</v>
@@ -2548,15 +2935,18 @@
         <v>0.22455367958656436</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.002613070671784845</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.051313492389484065</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05826890812397867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0481785293500934</v>
@@ -2565,15 +2955,18 @@
         <v>0.2256031831778451</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.001883722172745017</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04971593583623641</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.017839918128327525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04744965928306089</v>
@@ -2582,15 +2975,18 @@
         <v>0.22388454249288167</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.002130409104970088</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.040448305026729914</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.047219690644403726</v>
@@ -2599,15 +2995,18 @@
         <v>0.22902583592845793</v>
       </c>
       <c r="D6" t="n">
+        <v>-5.223612863349825E-4</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04502907159536435</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.02469261259037392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.046766689203703284</v>
@@ -2616,9 +3015,12 @@
         <v>0.23010438545932907</v>
       </c>
       <c r="D7" t="n">
+        <v>4.219471102450134E-4</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04217244492855936</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.02371652661731538</v>
       </c>
     </row>
@@ -2649,10 +3051,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0014307312583020403</v>
@@ -2661,15 +3066,18 @@
         <v>0.41683120544051144</v>
       </c>
       <c r="D2" t="n">
+        <v>0.20682488006823352</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.01802727608009603</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0788111804242897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>2.3918732456845656E-4</v>
@@ -2678,15 +3086,18 @@
         <v>0.41787955688373357</v>
       </c>
       <c r="D3" t="n">
+        <v>0.20787685443879977</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.025129082881166175</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07696104113612456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.001637713276320599</v>
@@ -2695,15 +3106,18 @@
         <v>0.41879831984833193</v>
       </c>
       <c r="D4" t="n">
+        <v>0.20920708345243288</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02291572489933833</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08342160813907906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.003240705465501043</v>
@@ -2712,15 +3126,18 @@
         <v>0.41964035955111345</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2103343083523299</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0281457926516514</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.006975613736424968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0026904214089421286</v>
@@ -2729,15 +3146,18 @@
         <v>0.4193807133408811</v>
       </c>
       <c r="D6" t="n">
+        <v>0.21040241714497188</v>
+      </c>
+      <c r="E6" t="n">
         <v>-0.006020376075590665</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.002844559442769315</v>
@@ -2746,9 +3166,12 @@
         <v>0.41938904153094647</v>
       </c>
       <c r="D7" t="n">
+        <v>0.21066813565450582</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0053240356929946196</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.016129381929887998</v>
       </c>
     </row>
@@ -2779,10 +3202,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.00601240558106314</v>
@@ -2791,15 +3217,18 @@
         <v>0.27324912611046154</v>
       </c>
       <c r="D2" t="n">
+        <v>0.051667828394486914</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.018901720326987077</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.9702190738997145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>-0.016355803011958638</v>
@@ -2808,15 +3237,18 @@
         <v>0.17349197538253797</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.0081922265454335</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.18378903626470441</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.7153977894947663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>-0.002187517371016068</v>
@@ -2825,15 +3257,18 @@
         <v>-0.3399708743710574</v>
       </c>
       <c r="D4" t="n">
+        <v>0.08960596821107314</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.13647544107378773</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.14618251017808248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0023135880660351132</v>
@@ -2842,15 +3277,18 @@
         <v>-0.34059040831983584</v>
       </c>
       <c r="D5" t="n">
+        <v>0.09952062157727803</v>
+      </c>
+      <c r="E5" t="n">
         <v>9.104228686674948E-4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.27443684570175986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0057388095700363715</v>
@@ -2859,15 +3297,18 @@
         <v>-0.3435861374472478</v>
       </c>
       <c r="D6" t="n">
+        <v>0.09506000225721367</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.08705609794770089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.10758521067993776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>-0.008138935927666256</v>
@@ -2876,9 +3317,12 @@
         <v>-0.320412846014248</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0819063560841522</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05115884332484996</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.030459207484708095</v>
       </c>
     </row>
@@ -2909,10 +3353,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03277767377846497</v>
@@ -2921,15 +3368,18 @@
         <v>0.4712993073841058</v>
       </c>
       <c r="D2" t="n">
+        <v>0.23690946259785228</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.039094221504451</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03825871211709142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.032754589988346426</v>
@@ -2938,15 +3388,18 @@
         <v>0.4713782062903839</v>
       </c>
       <c r="D3" t="n">
+        <v>0.23730483221169008</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03236726333628017</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03326656121147419</v>
@@ -2955,15 +3408,18 @@
         <v>0.4708504947939643</v>
       </c>
       <c r="D4" t="n">
+        <v>0.23720796394499688</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04172842705736519</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03392585505948832</v>
@@ -2972,15 +3428,18 @@
         <v>0.47254138404845947</v>
       </c>
       <c r="D5" t="n">
+        <v>0.23830331689163609</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0450643266545315</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04688358589885144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03397466578072718</v>
@@ -2989,15 +3448,18 @@
         <v>0.4727230943756533</v>
       </c>
       <c r="D6" t="n">
+        <v>0.23903937444742673</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.034817933209942115</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03383525584564937</v>
@@ -3006,9 +3468,12 @@
         <v>0.4729052167706087</v>
       </c>
       <c r="D7" t="n">
+        <v>0.23927169996025466</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03139329840121384</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.007024614936964824</v>
       </c>
     </row>
@@ -3039,10 +3504,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.01745737262871674</v>
@@ -3051,15 +3519,18 @@
         <v>-0.060867662217705766</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.01756051724163421</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.01854140493132684</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.014888612493750841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.01738876507344395</v>
@@ -3068,15 +3539,18 @@
         <v>-0.0598908516259437</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01721547306200155</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.017601940470699726</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.029558802241545834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.017606365532920536</v>
@@ -3085,15 +3559,18 @@
         <v>-0.06066849371388922</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.016753230241608463</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.01689524237420209</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.01770901458229978</v>
@@ -3102,15 +3579,18 @@
         <v>-0.05983745949096737</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.016454149185234135</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.01736641081563969</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03246719013749999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.01797426032485367</v>
@@ -3119,15 +3599,18 @@
         <v>-0.05854307371867557</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.016204750527572642</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.017107192261912978</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03052920503482426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.01820530035464649</v>
@@ -3136,9 +3619,12 @@
         <v>-0.055882684653346504</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.016104804424194707</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.017471169745722905</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.041141943331173714</v>
       </c>
     </row>
@@ -3169,10 +3655,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.041417722790274294</v>
@@ -3181,15 +3670,18 @@
         <v>-0.08227914532516593</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.013039134133396635</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.039056122967947034</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04783732941415941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04157777015350573</v>
@@ -3198,15 +3690,18 @@
         <v>-0.08021086036116057</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01291398367112162</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.04089273281281772</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.018821754240588184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04120715334891564</v>
@@ -3215,15 +3710,18 @@
         <v>-0.08208955958098697</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.012266910222742178</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04298408250504184</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05069311431551782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04131955541087829</v>
@@ -3232,15 +3730,18 @@
         <v>-0.08328478947927125</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.011639119509574636</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04068977975447616</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.055434706888100926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04157120091747392</v>
@@ -3249,15 +3750,18 @@
         <v>-0.08262343294697971</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.011433513850372057</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04037590815805659</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04135729936803138</v>
@@ -3266,9 +3770,12 @@
         <v>-0.08409390273705297</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.010814120688169115</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04240891411402741</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.024692612590371255</v>
       </c>
     </row>
@@ -3299,10 +3806,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03499581588033354</v>
@@ -3311,15 +3821,18 @@
         <v>-0.1354591352481921</v>
       </c>
       <c r="D2" t="n">
+        <v>6.595562828127788E-4</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03238156811205989</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03149866705937132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03498098340946677</v>
@@ -3328,15 +3841,18 @@
         <v>-0.13560672674249075</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0011456421647196846</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0350979587938742</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.008032171697265333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03426064526879743</v>
@@ -3345,15 +3861,18 @@
         <v>-0.13566730917124045</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0011419367487516263</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03999891175267099</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03396826479113569</v>
@@ -3362,15 +3881,18 @@
         <v>-0.13125961717083542</v>
       </c>
       <c r="D5" t="n">
+        <v>3.9659034468919607E-4</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03616530182849833</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0344821261726486</v>
@@ -3379,15 +3901,18 @@
         <v>-0.13581455808810924</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0016697846428448404</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.030299472977297306</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.034920242164339386</v>
@@ -3396,9 +3921,12 @@
         <v>-0.13144867014746758</v>
       </c>
       <c r="D7" t="n">
+        <v>5.784581080995332E-4</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.031325936251541835</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05638033343610793</v>
       </c>
     </row>
@@ -3429,10 +3957,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03698147084081277</v>
@@ -3441,15 +3972,18 @@
         <v>-0.07517358770795633</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.016119105400306033</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03651389916786692</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04592893188840019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03715341253384607</v>
@@ -3458,15 +3992,18 @@
         <v>-0.07490046948961694</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.015766405526230542</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03646219269209019</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.056380333436107044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03751265608633668</v>
@@ -3475,15 +4012,18 @@
         <v>-0.07329394113720479</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.015567932125109873</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03608229648876957</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.037927014088848694</v>
@@ -3492,15 +4032,18 @@
         <v>-0.06965545442072209</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01560630948908237</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.036352041751073476</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03824787613362567</v>
@@ -3509,15 +4052,18 @@
         <v>-0.06633605833930321</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.015586523515643158</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03707285799721721</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.013902905168992064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.037848489676204106</v>
@@ -3526,9 +4072,12 @@
         <v>-0.06986707071072827</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.01485137166335826</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.039432530738214594</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.019802627296178876</v>
       </c>
     </row>
@@ -3559,10 +4108,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.05598514805160634</v>
@@ -3571,15 +4123,18 @@
         <v>0.07709843053237922</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.01123873415440979</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05512693836518896</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.040181789632828924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.05566881538947944</v>
@@ -3588,15 +4143,18 @@
         <v>0.07835230400684191</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.010471208253350461</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.054521729161884316</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.055249560951514995</v>
@@ -3605,15 +4163,18 @@
         <v>0.08076004994584252</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.009459763846189961</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05365867911638086</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03343477608623946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.05483430197466263</v>
@@ -3622,15 +4183,18 @@
         <v>0.0839108301253374</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.008219307863793546</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.053174352881098653</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03633192924738893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.05449417862618852</v>
@@ -3639,15 +4203,18 @@
         <v>0.08646946617034458</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.00710064724227677</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05306892255525074</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.034401426717331596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.05412372583323009</v>
@@ -3656,9 +4223,12 @@
         <v>0.08879296339355583</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.006054396995095024</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05249946832290311</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
@@ -3689,10 +4259,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.05110349136923891</v>
@@ -3701,15 +4274,18 @@
         <v>-0.1343626865778925</v>
       </c>
       <c r="D2" t="n">
+        <v>0.008889020388407332</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.053128065641211995</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.05105957295054146</v>
@@ -3718,15 +4294,18 @@
         <v>-0.13412070116355757</v>
       </c>
       <c r="D3" t="n">
+        <v>0.009231189097901105</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.051378819310326465</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.029558802241549387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.05069627749417084</v>
@@ -3735,15 +4314,18 @@
         <v>-0.13332369911745823</v>
       </c>
       <c r="D4" t="n">
+        <v>0.009254422487352088</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05354903337886717</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04401688541676929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.05053708237709874</v>
@@ -3752,15 +4334,18 @@
         <v>-0.131856049817025</v>
       </c>
       <c r="D5" t="n">
+        <v>0.009050527605244496</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05176553145842708</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.02664193094642009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.05013104773357397</v>
@@ -3769,15 +4354,18 @@
         <v>-0.12958546511345806</v>
       </c>
       <c r="D6" t="n">
+        <v>0.008463098056907592</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05332268321575104</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04998080106745357</v>
@@ -3786,9 +4374,12 @@
         <v>-0.12788582646496047</v>
       </c>
       <c r="D7" t="n">
+        <v>0.008206453314091422</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.051143175460364294</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.011928570865274324</v>
       </c>
     </row>
@@ -3819,10 +4410,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.05030742594402926</v>
@@ -3831,15 +4425,18 @@
         <v>0.36814144896434464</v>
       </c>
       <c r="D2" t="n">
+        <v>0.13446789015256144</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05473853972096246</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06859279146560748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.05067488902118714</v>
@@ -3848,15 +4445,18 @@
         <v>0.3690202248740188</v>
       </c>
       <c r="D3" t="n">
+        <v>0.13527888806215949</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05568463288239089</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06952606264861139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.05103545120865875</v>
@@ -3865,15 +4465,18 @@
         <v>0.3697480768094032</v>
       </c>
       <c r="D4" t="n">
+        <v>0.13616991383600274</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.056053428232563554</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.06859279146561104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.051356051243747876</v>
@@ -3882,15 +4485,18 @@
         <v>0.3704669990775648</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1370197342331061</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0559121005218961</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07138999608667174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.051744823621083715</v>
@@ -3899,15 +4505,18 @@
         <v>0.37119396806288596</v>
       </c>
       <c r="D6" t="n">
+        <v>0.13782736553169006</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05738256236745658</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06391332574365638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.05190576155451407</v>
@@ -3916,9 +4525,12 @@
         <v>0.37168874937707186</v>
       </c>
       <c r="D7" t="n">
+        <v>0.13855117406911355</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05428734256991465</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
@@ -3949,10 +4561,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03837312676825321</v>
@@ -3961,15 +4576,18 @@
         <v>0.31490060375285545</v>
       </c>
       <c r="D2" t="n">
+        <v>0.09451348360391343</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04762955235000877</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03842708162742446</v>
@@ -3978,15 +4596,18 @@
         <v>0.3167111611111018</v>
       </c>
       <c r="D3" t="n">
+        <v>0.09802355665716556</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0390616480246964</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04974209189481282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03869438242598223</v>
@@ -3995,15 +4616,18 @@
         <v>0.31449357977780956</v>
       </c>
       <c r="D4" t="n">
+        <v>0.09825891092880867</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.041982536390636004</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03900178646305763</v>
@@ -4012,15 +4636,18 @@
         <v>0.3181671642567758</v>
       </c>
       <c r="D5" t="n">
+        <v>0.10037772156621294</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.042890533226595834</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.062035390919452205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03946529615746881</v>
@@ -4029,15 +4656,18 @@
         <v>0.32131894170135583</v>
       </c>
       <c r="D6" t="n">
+        <v>0.10345247837529192</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04549624273418336</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.039769259451639</v>
@@ -4046,9 +4676,12 @@
         <v>0.32566253398270867</v>
       </c>
       <c r="D7" t="n">
+        <v>0.10782066065328022</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.043831031532775795</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.010939940038334761</v>
       </c>
     </row>
@@ -4079,10 +4712,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.020379464493190433</v>
@@ -4091,15 +4727,18 @@
         <v>0.07388676990980685</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.016175259026280697</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.025011377229421775</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.022739486969489242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02033174589324958</v>
@@ -4108,15 +4747,18 @@
         <v>0.07293733252609316</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01574879444120514</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.020173816067935477</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.11154137473290593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.022204501447573827</v>
@@ -4125,15 +4767,18 @@
         <v>0.06914196075513053</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.015671225394900956</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02839896882048749</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.022678410836051804</v>
@@ -4142,15 +4787,18 @@
         <v>0.08141674563295069</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.013378962650198112</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.024444946824495748</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07232066157962702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02363847180145821</v>
@@ -4159,15 +4807,18 @@
         <v>0.08528656468936716</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.012138238140588564</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.02764155762909891</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.023867161668790295</v>
@@ -4176,9 +4827,12 @@
         <v>0.08823480377584486</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.011193161262503803</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0248583823837184</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04879016416943038</v>
       </c>
     </row>
@@ -4209,10 +4863,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0367645670068128</v>
@@ -4221,15 +4878,18 @@
         <v>0.4022763077169434</v>
       </c>
       <c r="D2" t="n">
+        <v>0.10142788032629702</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.049012214614683525</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03673226764700181</v>
@@ -4238,15 +4898,18 @@
         <v>0.40234743833012493</v>
       </c>
       <c r="D3" t="n">
+        <v>0.10212279674931646</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03626793795735258</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.036887966236378786</v>
@@ -4255,15 +4918,18 @@
         <v>0.40224841164649205</v>
       </c>
       <c r="D4" t="n">
+        <v>0.10244778047961833</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03918917185345937</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05259245011917102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.037238703091629265</v>
@@ -4272,15 +4938,18 @@
         <v>0.4029650981006998</v>
       </c>
       <c r="D5" t="n">
+        <v>0.10290167396115968</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04253576937488894</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.061095099359810945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03771581972096335</v>
@@ -4289,15 +4958,18 @@
         <v>0.40370108880217226</v>
       </c>
       <c r="D6" t="n">
+        <v>0.10369654700369635</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04506845133399444</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0266419309464192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03725094691789413</v>
@@ -4306,9 +4978,12 @@
         <v>0.40289134293287393</v>
       </c>
       <c r="D7" t="n">
+        <v>0.10331692990288122</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.029965401938108628</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.016129381929883557</v>
       </c>
     </row>
@@ -4339,10 +5014,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03406572520098848</v>
@@ -4351,15 +5029,18 @@
         <v>0.007748316527766529</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.020792589496111402</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03396348917706491</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.033977259462653654</v>
@@ -4368,15 +5049,18 @@
         <v>0.009608178169078685</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.020344863605237018</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03393601415256113</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.034225699277787944</v>
@@ -4385,15 +5069,18 @@
         <v>0.007839260058555217</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.019958593200404717</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03432520810976625</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0695260626486105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.034895842629536246</v>
@@ -4402,15 +5089,18 @@
         <v>0.02233220742068828</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.019279005685570505</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03566317726798091</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06203539091945309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03541636932526196</v>
@@ -4419,15 +5109,18 @@
         <v>0.04892945520276244</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.017536079352386214</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0366385347593507</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.0351162860762009</v>
@@ -4436,9 +5129,12 @@
         <v>0.03794378531066412</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.017876656389075984</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.034535508174624766</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
@@ -4469,10 +5165,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03572913902340313</v>
@@ -4481,15 +5180,18 @@
         <v>-0.06953212025660126</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.016349604557772013</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0331670314510264</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07510747248680527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03649530697121982</v>
@@ -4498,15 +5200,18 @@
         <v>-0.06733959019645726</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.016193831199875497</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.033732167927903914</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08434114843375085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03740436227792036</v>
@@ -4515,15 +5220,18 @@
         <v>-0.06439609965275254</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.0161352747539123</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.034216153666689966</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.045928931888399305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0376107124979166</v>
@@ -4532,15 +5240,18 @@
         <v>-0.0636018369810197</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01582671538648528</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03688241091418143</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07325046173959393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03824248899626255</v>
@@ -4549,15 +5260,18 @@
         <v>-0.06295858306009063</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.015516774482619677</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03599585235708601</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.039082793226054166</v>
@@ -4566,9 +5280,12 @@
         <v>-0.06059683410044232</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.015430454595575238</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03615698263657952</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05732506661926884</v>
       </c>
     </row>
@@ -4599,10 +5316,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04300583269876957</v>
@@ -4611,15 +5331,18 @@
         <v>0.5088825636333963</v>
       </c>
       <c r="D2" t="n">
+        <v>0.21992330393445292</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.06540920840976583</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0424011461150604</v>
@@ -4628,15 +5351,18 @@
         <v>0.49587344007665474</v>
       </c>
       <c r="D3" t="n">
+        <v>0.21772196723663895</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.032035036709212775</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.030529205034822482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04235650534253342</v>
@@ -4645,15 +5371,18 @@
         <v>0.4968342190053114</v>
       </c>
       <c r="D4" t="n">
+        <v>0.21865186631447553</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.041651902980044196</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04688358589884967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04249899097701015</v>
@@ -4662,15 +5391,18 @@
         <v>0.4981371609390008</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2188977605929907</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04503908364735382</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06297479916139004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.042992377504619636</v>
@@ -4679,15 +5411,18 @@
         <v>0.49699958678850453</v>
       </c>
       <c r="D6" t="n">
+        <v>0.21904779260185847</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0517374490779218</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.042609626669593205</v>
@@ -4696,9 +5431,12 @@
         <v>0.4951504188309022</v>
       </c>
       <c r="D7" t="n">
+        <v>0.21845415653827815</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.035605819955280144</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04018178963282715</v>
       </c>
     </row>
@@ -4729,10 +5467,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.026320311132519262</v>
@@ -4741,15 +5482,18 @@
         <v>-0.3295625394163412</v>
       </c>
       <c r="D2" t="n">
+        <v>0.09873620335351563</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.02105856417867134</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.017839918128331966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02627934239717239</v>
@@ -4758,15 +5502,18 @@
         <v>-0.3304676728456314</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0999523570477423</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.02731666787399942</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.026484858677881532</v>
@@ -4775,15 +5522,18 @@
         <v>-0.32987725501536</v>
       </c>
       <c r="D4" t="n">
+        <v>0.10034199460741933</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.021393536009869214</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.026652639956346615</v>
@@ -4792,15 +5542,18 @@
         <v>-0.3274020241519514</v>
       </c>
       <c r="D5" t="n">
+        <v>0.09891882091907711</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.022488827850029144</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02687735792987287</v>
@@ -4809,15 +5562,18 @@
         <v>-0.3236684842861695</v>
       </c>
       <c r="D6" t="n">
+        <v>0.09691502193080126</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.021279871583962454</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02740540928119841</v>
@@ -4826,9 +5582,12 @@
         <v>-0.3122648460344534</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0885160923788838</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.014705926583755516</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06485097231961667</v>
       </c>
     </row>
@@ -4859,10 +5618,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04207160507943343</v>
@@ -4871,15 +5633,18 @@
         <v>0.07043723379821924</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.016992196238980295</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04345266775971294</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07603468627599774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.042747306243742136</v>
@@ -4888,15 +5653,18 @@
         <v>0.07528302219566885</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.016118738819124845</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.04514453607777279</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06391332574365283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.043128457745680644</v>
@@ -4905,15 +5673,18 @@
         <v>0.07903337632749594</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.015223612443515</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04457499204150886</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0434042356925231</v>
@@ -4922,15 +5693,18 @@
         <v>0.08041736722701369</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.014635276382021445</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04448316560750368</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0324671901374991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.043166197831613844</v>
@@ -4939,15 +5713,18 @@
         <v>0.07958207361363023</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.014379177364269191</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.042228297658672136</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.034401426717336925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.043011420791871126</v>
@@ -4956,9 +5733,12 @@
         <v>0.0803991576409895</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.013921924435648103</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.042394504440027424</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0440168854167684</v>
       </c>
     </row>
@@ -4989,10 +5769,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.022167042038169976</v>
@@ -5001,15 +5784,18 @@
         <v>0.021680867220470513</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.020136509804585145</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.02281626884180477</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04688358589884878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.022652397658741403</v>
@@ -5018,15 +5804,18 @@
         <v>0.024419739692986914</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.019522402798273664</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.023226577871476913</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.14149956227370009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.025007442963292884</v>
@@ -5035,15 +5824,18 @@
         <v>0.03450247995916329</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.018316063607407562</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.029001774104629542</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1881379421153948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.028270491765519</v>
@@ -5052,15 +5844,18 @@
         <v>0.0990237396299068</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.006588934416530412</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04300674930601135</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0449733656427318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02830994273560228</v>
@@ -5069,15 +5864,18 @@
         <v>0.09993994504202439</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.004944916991212134</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.028490283777175482</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.22941316432780567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.023109622127845484</v>
@@ -5086,9 +5884,12 @@
         <v>0.11243049869317641</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.007961879162105223</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.005342020206750557</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06109509935981183</v>
       </c>
     </row>
@@ -5119,10 +5920,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.021291611678727458</v>
@@ -5131,15 +5935,18 @@
         <v>0.08885688812325195</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012026768235115393</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.021654376335333455</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.1131686981056399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.01842547574789944</v>
@@ -5148,15 +5955,18 @@
         <v>0.0880303813511477</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.012112671756657312</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.006789129103988418</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0119285708652761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.018533781373348036</v>
@@ -5165,15 +5975,18 @@
         <v>0.08666806052658067</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.011666822267412336</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.01895489660482489</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0276151670329714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.018710317529920504</v>
@@ -5182,15 +5995,18 @@
         <v>0.08697707966403678</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01126513801555773</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.019448995497165462</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.019029490603575592</v>
@@ -5199,15 +6015,18 @@
         <v>0.08719820182348854</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01084805974597236</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.02039178910144934</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.019324239718583346</v>
@@ -5216,9 +6035,12 @@
         <v>0.08764735534354566</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.010402092381274652</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02061244615119711</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03149866705937043</v>
       </c>
     </row>
@@ -5249,10 +6071,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0313166529780058</v>
@@ -5261,15 +6086,18 @@
         <v>0.4609538940735189</v>
       </c>
       <c r="D2" t="n">
+        <v>0.20027147932758738</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.039790760802352</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.031113247146987627</v>
@@ -5278,15 +6106,18 @@
         <v>0.4539812695158161</v>
       </c>
       <c r="D3" t="n">
+        <v>0.19877886279525447</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.027967383199634686</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.030941640395923623</v>
@@ -5295,15 +6126,18 @@
         <v>0.4579898701163571</v>
       </c>
       <c r="D4" t="n">
+        <v>0.20024065585823592</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0281966722070694</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.024692612590372143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03084649684169447</v>
@@ -5312,15 +6146,18 @@
         <v>0.45767260105047725</v>
       </c>
       <c r="D5" t="n">
+        <v>0.20117943040378794</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.029273364466100658</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.030514625067179144</v>
@@ -5329,15 +6166,18 @@
         <v>0.4596541484660491</v>
       </c>
       <c r="D6" t="n">
+        <v>0.20151585654540605</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.024917175566835724</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.012916225266547343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03019906752307712</v>
@@ -5346,9 +6186,12 @@
         <v>0.46274748796086024</v>
       </c>
       <c r="D7" t="n">
+        <v>0.20521925378355832</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02475913055913767</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.002995508979797279</v>
       </c>
     </row>
@@ -5379,10 +6222,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03868585216570414</v>
@@ -5391,15 +6237,18 @@
         <v>0.305015330170981</v>
       </c>
       <c r="D2" t="n">
+        <v>0.07777503126469287</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03859634305878705</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.020202707317519497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.037199249147024674</v>
@@ -5408,15 +6257,18 @@
         <v>0.30387131057331246</v>
       </c>
       <c r="D3" t="n">
+        <v>0.07610896815507273</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.01967981635874901</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.004987541511038529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.036827295336917566</v>
@@ -5425,15 +6277,18 @@
         <v>0.3090770401188781</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0818612408021171</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03246937254769229</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03708605426137445</v>
@@ -5442,15 +6297,18 @@
         <v>0.30935568908512806</v>
       </c>
       <c r="D5" t="n">
+        <v>0.08165255672047</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.040300671739738676</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.026641930946420977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03675922016148151</v>
@@ -5459,15 +6317,18 @@
         <v>0.3087905822944758</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08140414818866037</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03262023909753215</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03711849433162856</v>
@@ -5476,9 +6337,12 @@
         <v>0.3073348680343315</v>
       </c>
       <c r="D7" t="n">
+        <v>0.08082878387295578</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04170348852134243</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
@@ -5509,10 +6373,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04109664564101607</v>
@@ -5521,15 +6388,18 @@
         <v>0.4387430067438866</v>
       </c>
       <c r="D2" t="n">
+        <v>0.20878105166402572</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04759523293359165</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07603468627599685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04188680290683629</v>
@@ -5538,15 +6408,18 @@
         <v>0.441748402979062</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2157383142417365</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.054203411840412316</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04176974215366644</v>
@@ -5555,15 +6428,18 @@
         <v>0.43729081422623983</v>
       </c>
       <c r="D4" t="n">
+        <v>0.21737491428858446</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0399062692685849</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04259285005989719</v>
@@ -5572,15 +6448,18 @@
         <v>0.41840739547594846</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2017614358911084</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05501287961809232</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0676586484738193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.042906164888815955</v>
@@ -5589,15 +6468,18 @@
         <v>0.43472569865391386</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2187302230619138</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04805010050659901</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06765864847381131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.043413766494524476</v>
@@ -5606,9 +6488,12 @@
         <v>0.43159198406011323</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2225780887684321</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0517182164576105</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06765864847381486</v>
       </c>
     </row>
@@ -5639,10 +6524,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03513853735141944</v>
@@ -5651,15 +6539,18 @@
         <v>0.08712554619266846</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012231916670784937</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.035491696751547716</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.047837329414158525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03540156751608701</v>
@@ -5668,15 +6559,18 @@
         <v>0.08751271236986273</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01174383333543938</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0364606676454562</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.035620176157480525</v>
@@ -5685,15 +6579,18 @@
         <v>0.08828085182870916</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.011186682959682503</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03652178838946531</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03922071315328246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03567570123581223</v>
@@ -5702,15 +6599,18 @@
         <v>0.08846373778006636</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01075848395354373</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.035909796815414514</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05732506661926884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03610678834231823</v>
@@ -5719,15 +6619,18 @@
         <v>0.08885320843145648</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.010314409254249979</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.037974362475614566</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.036379288091349944</v>
@@ -5736,9 +6639,12 @@
         <v>0.09050283744781468</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.009613626232061634</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03759062607381653</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04879016416943127</v>
       </c>
     </row>
@@ -5769,10 +6675,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.08328597714853607</v>
@@ -5781,15 +6690,18 @@
         <v>0.5401503565307872</v>
       </c>
       <c r="D2" t="n">
+        <v>0.29093510128585953</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.12751517331837858</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0814034999227508</v>
@@ -5798,15 +6710,18 @@
         <v>0.4831867883763755</v>
       </c>
       <c r="D3" t="n">
+        <v>0.265169745799383</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05275996822043972</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04401688541677373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.08116360525793624</v>
@@ -5815,15 +6730,18 @@
         <v>0.4889742194835307</v>
       </c>
       <c r="D4" t="n">
+        <v>0.27199033235429837</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.07733732001477943</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.10705907229340816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.08198389600943562</v>
@@ -5832,15 +6750,18 @@
         <v>0.49772536141071666</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2698165480713306</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0962485290400923</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0401817896328307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.08044740939414724</v>
@@ -5849,15 +6770,18 @@
         <v>0.49819408162189915</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2577939824292661</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05302658344463297</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.017146158834970393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.07853736203449692</v>
@@ -5866,9 +6790,12 @@
         <v>0.517542712665867</v>
       </c>
       <c r="D7" t="n">
+        <v>0.27171603924969145</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04339834291687318</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04210117601863672</v>
       </c>
     </row>
@@ -5899,10 +6826,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.048048889193299506</v>
@@ -5911,15 +6841,18 @@
         <v>-0.10689231076619249</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.011271589664943127</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04972518895630429</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.01918281941677158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04677130858968314</v>
@@ -5928,15 +6861,18 @@
         <v>-0.07778968917511023</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.015472996864148492</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05198496907438386</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03922071315327713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04652359022660274</v>
@@ -5945,15 +6881,18 @@
         <v>-0.05972251639059982</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.0167874374325776</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04719689796145825</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04618556218930734</v>
@@ -5962,15 +6901,18 @@
         <v>-0.053835903707381894</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.016879208616584096</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04716346456755205</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04583324992074244</v>
@@ -5979,15 +6921,18 @@
         <v>-0.046382627835669286</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.017189579162234514</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0467163175493617</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.010939940038332985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04519134309581556</v>
@@ -5996,9 +6941,12 @@
         <v>-0.03243464801972458</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.017864264563939747</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.046321341028257475</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.011928570865272548</v>
       </c>
     </row>
@@ -6029,10 +6977,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.050993634293534026</v>
@@ -6041,15 +6992,18 @@
         <v>0.5273995039155205</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3164919155011505</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0532385087040137</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08984070399979327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.05207336811290693</v>
@@ -6058,15 +7012,18 @@
         <v>0.5319328982965682</v>
       </c>
       <c r="D3" t="n">
+        <v>0.31252722113506337</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.07112609292090342</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.05110403684014942</v>
@@ -6075,15 +7032,18 @@
         <v>0.5250595473877021</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3004448943396928</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.033772043391429724</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.035367143837293114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.051147987252762823</v>
@@ -6092,15 +7052,18 @@
         <v>0.5245654667962488</v>
       </c>
       <c r="D5" t="n">
+        <v>0.3029855755809796</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05195727555309865</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04974209189481371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.05108750049485901</v>
@@ -6109,15 +7072,18 @@
         <v>0.5242226399762496</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3032057120437316</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.049951812892896574</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05069311431551515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.05110747329488703</v>
@@ -6126,9 +7092,12 @@
         <v>0.5242302935374616</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3034535587116193</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.051489281095803266</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.045928931888399305</v>
       </c>
     </row>
@@ -6159,10 +7128,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.02966980795162513</v>
@@ -6171,15 +7143,18 @@
         <v>0.02708199157099404</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.019741322545844264</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03147932580529654</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.030153358541496804</v>
@@ -6188,15 +7163,18 @@
         <v>0.03606552925811017</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01840587148463424</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.030945354509196495</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07325046173959215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03098766678183709</v>
@@ -6205,15 +7183,18 @@
         <v>0.0408138220958365</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.017391945834207112</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.032677831329806735</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03133462354520662</v>
@@ -6222,15 +7203,18 @@
         <v>0.04477162370953613</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.016442347702206872</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03207655533602472</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03160288882086</v>
@@ -6239,15 +7223,18 @@
         <v>0.045924874218256855</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.015883750720691925</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.032226498499400985</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03154008769311226</v>
@@ -6256,9 +7243,12 @@
         <v>0.045670722134501844</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.015558844008217942</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03137678289326146</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03536714383729134</v>
       </c>
     </row>
@@ -6289,10 +7279,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.022656011892127015</v>
@@ -6301,15 +7294,18 @@
         <v>0.3374380363435009</v>
       </c>
       <c r="D2" t="n">
+        <v>0.10551729265169907</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.037010858033109315</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1432341680859066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.025377504017155383</v>
@@ -6318,15 +7314,18 @@
         <v>0.3279483955217634</v>
       </c>
       <c r="D3" t="n">
+        <v>0.11135666192953397</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.059449660560420906</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.13802129789737272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02741327836434287</v>
@@ -6335,15 +7334,18 @@
         <v>0.35353493837908667</v>
       </c>
       <c r="D4" t="n">
+        <v>0.12960954684366077</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0536063646465032</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.053540766928031225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02741154825686906</v>
@@ -6352,15 +7354,18 @@
         <v>0.3536364331753951</v>
       </c>
       <c r="D5" t="n">
+        <v>0.13199370349530604</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.027387650464274122</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.027247929079856445</v>
@@ -6369,15 +7374,18 @@
         <v>0.3539342103533239</v>
       </c>
       <c r="D6" t="n">
+        <v>0.13228721160827606</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.024954128129135847</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02705078052616301</v>
@@ -6386,9 +7394,12 @@
         <v>0.35406812131244114</v>
       </c>
       <c r="D7" t="n">
+        <v>0.13267041928200274</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02423555589762412</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.005982071677549605</v>
       </c>
     </row>
@@ -6419,10 +7430,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04105743728431414</v>
@@ -6431,15 +7445,18 @@
         <v>-0.08504762211116518</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012402419614550908</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04014063879176279</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06391332574365194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.041487448759946643</v>
@@ -6448,15 +7465,18 @@
         <v>-0.08073681112694954</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.012940182470293049</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03960946033833573</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06297479916138915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04190636317836713</v>
@@ -6465,15 +7485,18 @@
         <v>-0.07087775279625151</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.014236419247336762</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04029897805874367</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05638033343610793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04221299000750241</v>
@@ -6482,15 +7505,18 @@
         <v>-0.06398988367626879</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.014831316686337859</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.041215561490564594</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.042205634231697715</v>
@@ -6499,15 +7525,18 @@
         <v>-0.06386293155546532</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.014471978439861921</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04214871310449543</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04213273572319122</v>
@@ -6516,9 +7545,12 @@
         <v>-0.06399645212265483</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.014103339330519438</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.042376680796472554</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05732506661927328</v>
       </c>
     </row>
@@ -6549,10 +7581,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0243758891816299</v>
@@ -6561,15 +7596,18 @@
         <v>0.031998206890700896</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.019984631438213052</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.024779814913514494</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0411419433311746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.024702905769297408</v>
@@ -6578,15 +7616,18 @@
         <v>0.033169258461541805</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.019498138105360052</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.02523464739605994</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.024976154393178913</v>
@@ -6595,15 +7636,18 @@
         <v>0.03453858960572617</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.01901409031269785</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.025449352274074983</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04497336564273091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.025352203401704656</v>
@@ -6612,15 +7656,18 @@
         <v>0.036072275259543006</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01853310289958121</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.026042658949183003</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.025726142127734046</v>
@@ -6629,15 +7676,18 @@
         <v>0.03849684386683174</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01800833613507602</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.02647609824571333</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.03978087001184427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.024512793211629816</v>
@@ -6646,9 +7696,12 @@
         <v>0.03028981959135368</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.018133308188241548</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02254625765418828</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.0060180723255607305</v>
       </c>
     </row>
@@ -6679,10 +7732,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.059298895554385896</v>
@@ -6691,15 +7747,18 @@
         <v>0.21029559861688657</v>
       </c>
       <c r="D2" t="n">
+        <v>0.03697018161573429</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05305899248985546</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03922071315328335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.05897011794714415</v>
@@ -6708,15 +7767,18 @@
         <v>0.21212587661924695</v>
       </c>
       <c r="D3" t="n">
+        <v>0.03940694126909672</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0560984119746167</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.010939940038332097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.057916995188243794</v>
@@ -6725,15 +7787,18 @@
         <v>0.21588288537956282</v>
       </c>
       <c r="D4" t="n">
+        <v>0.04138879615538715</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.048363309372396024</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.007968169649175572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.05697470155708139</v>
@@ -6742,15 +7807,18 @@
         <v>0.22850322147929408</v>
       </c>
       <c r="D5" t="n">
+        <v>0.049210438560532754</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04804094703228274</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.005982071677548717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.056008902516508086</v>
@@ -6759,15 +7827,18 @@
         <v>0.2374205175338953</v>
       </c>
       <c r="D6" t="n">
+        <v>0.05617893523561024</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04627059170773849</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.010939940038334761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.05520613691815649</v>
@@ -6776,9 +7847,12 @@
         <v>0.24581398885844075</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06275571653831491</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04675019468369695</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03825871211709231</v>
       </c>
     </row>
@@ -6809,10 +7883,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03320002164459839</v>
@@ -6821,15 +7898,18 @@
         <v>0.3007173123737138</v>
       </c>
       <c r="D2" t="n">
+        <v>0.06209923017541763</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03423740601498961</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.040181789632833365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03335022293858032</v>
@@ -6838,15 +7918,18 @@
         <v>0.3010994899222695</v>
       </c>
       <c r="D3" t="n">
+        <v>0.0625461477172321</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.035104595311868755</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.044016885416772844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.033571408327067766</v>
@@ -6855,15 +7938,18 @@
         <v>0.3014552726397903</v>
       </c>
       <c r="D4" t="n">
+        <v>0.06307319618376495</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03620640657097227</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05259245011917191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03397074252870191</v>
@@ -6872,15 +7958,18 @@
         <v>0.3024002687365216</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06383186957536857</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03883099911007859</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.034412969915385</v>
@@ -6889,15 +7978,18 @@
         <v>0.30423548676178874</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06519082425587697</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03992863832942797</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05543470688810004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.034777233290845526</v>
@@ -6906,9 +7998,12 @@
         <v>0.3057976472940755</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06657094039068134</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.039426967091238704</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04401688541677373</v>
       </c>
     </row>
